--- a/Project-5/doc/results.xlsx
+++ b/Project-5/doc/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>gohawks</t>
   </si>
@@ -126,6 +126,72 @@
   </si>
   <si>
     <t>Predicted WA</t>
+  </si>
+  <si>
+    <t>Mean Errors</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>During</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>gopatriot</t>
+  </si>
+  <si>
+    <t>patriot</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>superbowlxlix</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>colt</t>
+  </si>
+  <si>
+    <t>espntemsuperbowl</t>
+  </si>
+  <si>
+    <t>seahawk</t>
+  </si>
+  <si>
+    <t>gopat</t>
+  </si>
+  <si>
+    <t>bradi</t>
+  </si>
+  <si>
+    <t>patriotsn</t>
+  </si>
+  <si>
+    <t>httptco</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>gopats</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>brady</t>
   </si>
 </sst>
 </file>
@@ -202,8 +268,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="393">
+  <cellStyleXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -611,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="393">
+  <cellStyles count="423">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -808,6 +904,21 @@
     <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1004,6 +1115,21 @@
     <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:E66"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1937,7 +2063,7 @@
         <v>0.86050899999999997</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D65" s="4">
         <v>2856</v>
       </c>
@@ -1945,12 +2071,297 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D66" s="4">
         <v>359</v>
       </c>
       <c r="E66" s="4">
         <v>913</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C69" s="4">
+        <v>212.42699999999999</v>
+      </c>
+      <c r="D69" s="4">
+        <v>33.268000000000001</v>
+      </c>
+      <c r="E69" s="4">
+        <v>174.13800000000001</v>
+      </c>
+      <c r="F69" s="4">
+        <v>471.23099999999999</v>
+      </c>
+      <c r="G69" s="4">
+        <v>836.2</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1747.222</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="4">
+        <v>188.06800000000001</v>
+      </c>
+      <c r="F73" s="4">
+        <v>35.774000000000001</v>
+      </c>
+      <c r="G73" s="4">
+        <v>168.89599999999999</v>
+      </c>
+      <c r="H73" s="4">
+        <v>552.84100000000001</v>
+      </c>
+      <c r="I73" s="4">
+        <v>608.22</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1503.7239999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+      <c r="D92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
